--- a/V6火山+5015方案/V6火山+5015方案B/购物清单.xlsx
+++ b/V6火山+5015方案/V6火山+5015方案B/购物清单.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>名称</t>
   </si>
@@ -96,19 +96,24 @@
     <t>https://item.taobao.com/item.htm?spm=a1z10.3-c-s.w4002-22464691177.19.6e8e52d6ffWhPJ&amp;id=520650475697</t>
   </si>
   <si>
-    <t>V6近程散热器-M7螺纹</t>
-  </si>
-  <si>
-    <t>注意螺纹尺寸</t>
+    <t>V6内置接头版</t>
+  </si>
+  <si>
+    <t xml:space="preserve">注意螺纹尺寸即可，也可自行购买
+V6近程散热器-M7螺纹</t>
   </si>
   <si>
     <t>https://item.taobao.com/item.htm?spm=a1z0d.6639537/tb.1997196601.12.37af7484v1LHsb&amp;id=45264546491</t>
   </si>
   <si>
-    <t>尾部M7螺纹喉管</t>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?spm=a1z10.3-c-s.w4002-22464691177.15.6e6152d6c2mjI7&amp;id=521060752059</t>
+    <t>尾部M7螺纹外六角喉管</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可自行购买
+M7螺纹的不锈钢喉管，并更改模型</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.50.1d593015HBwxkb&amp;id=726282961254&amp;ns=1&amp;abbucket=12#detail</t>
   </si>
   <si>
     <t xml:space="preserve"> PT-100加热块</t>
@@ -133,13 +138,17 @@
   </si>
   <si>
     <t xml:space="preserve"> 加热棒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">需要说明的是，有的链接的商品只是和我用的型号相同
+其次，商品可能会下架、替换、加价，造成的额外费用与本人无关，需自行按所给型号甄别</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -156,6 +165,12 @@
       <sz val="11.000000"/>
       <color theme="10"/>
       <name val="蘋方-簡"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.000000"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -242,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -283,8 +298,8 @@
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf fontId="1" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -295,17 +310,20 @@
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf fontId="1" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -319,6 +337,78 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>781049</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1344616</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1335770464" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="0" flipH="0" flipV="0">
+          <a:off x="247650" y="1924050"/>
+          <a:ext cx="781049" cy="1058865"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>534991</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="578138" cy="976312"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1616322593" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="0" flipV="0">
+          <a:off x="247650" y="4211641"/>
+          <a:ext cx="578138" cy="976312"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
@@ -814,7 +904,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -825,8 +915,7 @@
     <col min="3" max="3" style="3" width="9.140625"/>
     <col min="4" max="5" style="1" width="9.140625"/>
     <col customWidth="1" min="6" max="6" style="1" width="17.8515625"/>
-    <col min="7" max="8" style="1" width="9.140625"/>
-    <col min="9" max="16384" style="1" width="9.140625"/>
+    <col min="7" max="16384" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="16.5">
@@ -863,7 +952,7 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1">
-        <f>SUM(C2:D2)</f>
+        <f t="shared" ref="E2:E9" si="0">SUM(C2:D2)</f>
         <v>6</v>
       </c>
       <c r="G2" s="8" t="s">
@@ -879,7 +968,7 @@
         <v>1.6200000000000001</v>
       </c>
       <c r="E3" s="1">
-        <f>SUM(C3:D3)</f>
+        <f t="shared" si="0"/>
         <v>1.6200000000000001</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -895,7 +984,7 @@
         <v>1.9099999999999999</v>
       </c>
       <c r="E4" s="1">
-        <f>SUM(C4:D4)</f>
+        <f t="shared" si="0"/>
         <v>1.9099999999999999</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -911,7 +1000,7 @@
         <v>1.3999999999999999</v>
       </c>
       <c r="E5" s="9">
-        <f>SUM(C5:D5)</f>
+        <f t="shared" si="0"/>
         <v>1.3999999999999999</v>
       </c>
       <c r="F5" s="9"/>
@@ -929,7 +1018,7 @@
         <v>0.92000000000000004</v>
       </c>
       <c r="E6" s="1">
-        <f>SUM(C6:D6)</f>
+        <f t="shared" si="0"/>
         <v>0.92000000000000004</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -943,7 +1032,7 @@
       </c>
       <c r="C7" s="3"/>
       <c r="E7" s="1">
-        <f>SUM(C7:D7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F7" s="13" t="s">
@@ -958,23 +1047,23 @@
       </c>
       <c r="C8" s="3"/>
       <c r="E8" s="1">
-        <f>SUM(C8:D8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" s="9" customFormat="1" ht="16.5">
+    <row r="9" s="9" customFormat="1" ht="112.09999999999999" customHeight="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="12">
         <v>9.5999999999999996</v>
       </c>
       <c r="E9" s="9">
-        <f>SUM(C9:D9)</f>
+        <f t="shared" si="0"/>
         <v>9.5999999999999996</v>
       </c>
       <c r="F9" s="9"/>
@@ -991,7 +1080,7 @@
         <v>24</v>
       </c>
       <c r="E10" s="1">
-        <f>SUM(C10:D10)</f>
+        <f t="shared" ref="E10:E18" si="1">SUM(C10:D10)</f>
         <v>0</v>
       </c>
       <c r="F10" s="16" t="s">
@@ -1010,7 +1099,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="1">
-        <f>SUM(C11:D11)</f>
+        <f t="shared" si="1"/>
         <v>5.7999999999999998</v>
       </c>
       <c r="F11" s="1"/>
@@ -1018,111 +1107,117 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" ht="33">
+    <row r="12" ht="120.75" customHeight="1">
       <c r="A12" s="6"/>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="18" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="3">
-        <v>1.8999999999999999</v>
+        <v>3</v>
       </c>
       <c r="E12" s="1">
-        <f>SUM(C12:D12)</f>
-        <v>1.8999999999999999</v>
-      </c>
-      <c r="F12" s="1" t="s">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F12" s="19" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" ht="33">
+    <row r="13" ht="49.5">
       <c r="A13" s="6"/>
       <c r="B13" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="3">
-        <v>0.80000000000000004</v>
+        <v>6.9000000000000004</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.7999999999999998</v>
       </c>
       <c r="E13" s="1">
-        <f>SUM(C13:D13)</f>
-        <v>0.80000000000000004</v>
-      </c>
-      <c r="G13" s="8" t="s">
+        <f t="shared" si="1"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F13" s="19" t="s">
         <v>31</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" ht="33">
       <c r="A14" s="6"/>
       <c r="B14" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="3">
         <v>4</v>
       </c>
       <c r="E14" s="1">
-        <f>SUM(C14:D14)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="18" t="s">
-        <v>33</v>
+      <c r="G14" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" ht="33">
       <c r="A15" s="6"/>
       <c r="B15" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="3">
         <v>1.2</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="18"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" ht="16.5">
       <c r="A16" s="6"/>
       <c r="B16" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="3">
         <v>1.2</v>
       </c>
       <c r="E16" s="1">
-        <f>SUM(C16:D16)</f>
+        <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" ht="33">
       <c r="A17" s="6"/>
       <c r="B17" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" s="3">
         <v>2.0499999999999998</v>
       </c>
       <c r="E17" s="1">
-        <f>SUM(C17:D17)</f>
+        <f t="shared" si="1"/>
         <v>2.0499999999999998</v>
       </c>
-      <c r="F17" s="20"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" s="9" customFormat="1" ht="16.5">
       <c r="A18" s="10"/>
       <c r="B18" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" s="12"/>
       <c r="E18" s="9">
-        <f>SUM(C18:D18)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F18" s="21" t="s">
@@ -1131,10 +1226,13 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" ht="16.5">
-      <c r="E19" s="1">
+    <row r="19" ht="165">
+      <c r="E19" s="22">
         <f>SUM(E2:E18)</f>
-        <v>37.200000000000003</v>
+        <v>47.200000000000003</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1161,5 +1259,6 @@
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
--- a/V6火山+5015方案/V6火山+5015方案B/购物清单.xlsx
+++ b/V6火山+5015方案/V6火山+5015方案B/购物清单.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>名称</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>M3*3+3</t>
+  </si>
+  <si>
+    <t>可自行使用双通螺柱替换，或使用垫片</t>
   </si>
   <si>
     <t>https://detail.tmall.com/item.htm?id=723347838083&amp;spm=a1z0d.6639537/tb.1997196601.4.28577484rE4ewK&amp;skuId=5029218821646</t>
@@ -295,6 +298,9 @@
     <xf fontId="1" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -312,9 +318,6 @@
     </xf>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -904,7 +907,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1007,7 +1010,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" ht="16.5">
+    <row r="6" ht="49.5">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -1021,43 +1024,46 @@
         <f t="shared" si="0"/>
         <v>0.92000000000000004</v>
       </c>
+      <c r="F6" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="G6" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" ht="16.5">
       <c r="A7" s="6"/>
       <c r="B7" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3"/>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>18</v>
+      <c r="F7" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" ht="16.5">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3"/>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>20</v>
+      <c r="F8" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" s="9" customFormat="1" ht="112.09999999999999" customHeight="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="14" t="s">
-        <v>21</v>
+      <c r="B9" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="C9" s="12">
         <v>9.5999999999999996</v>
@@ -1067,30 +1073,30 @@
         <v>9.5999999999999996</v>
       </c>
       <c r="F9" s="9"/>
-      <c r="G9" s="15" t="s">
-        <v>22</v>
+      <c r="G9" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="H9" s="9"/>
     </row>
     <row r="10" ht="16.5">
       <c r="A10" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" ref="E10:E18" si="1">SUM(C10:D10)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>20</v>
+      <c r="F10" s="17" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="33">
       <c r="A11" s="6"/>
-      <c r="B11" s="17" t="s">
-        <v>25</v>
+      <c r="B11" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="C11" s="3">
         <v>0.80000000000000004</v>
@@ -1104,13 +1110,13 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" ht="120.75" customHeight="1">
       <c r="A12" s="6"/>
-      <c r="B12" s="18" t="s">
-        <v>27</v>
+      <c r="B12" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="C12" s="3">
         <v>3</v>
@@ -1119,17 +1125,17 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>28</v>
+      <c r="F12" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" ht="49.5">
       <c r="A13" s="6"/>
-      <c r="B13" s="17" t="s">
-        <v>30</v>
+      <c r="B13" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="C13" s="3">
         <v>6.9000000000000004</v>
@@ -1141,17 +1147,17 @@
         <f t="shared" si="1"/>
         <v>9.6999999999999993</v>
       </c>
-      <c r="F13" s="19" t="s">
-        <v>31</v>
+      <c r="F13" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" ht="33">
       <c r="A14" s="6"/>
-      <c r="B14" s="17" t="s">
-        <v>33</v>
+      <c r="B14" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="C14" s="3">
         <v>4</v>
@@ -1162,13 +1168,13 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" ht="33">
       <c r="A15" s="6"/>
-      <c r="B15" s="17" t="s">
-        <v>35</v>
+      <c r="B15" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="C15" s="3">
         <v>1.2</v>
@@ -1180,7 +1186,7 @@
     <row r="16" ht="16.5">
       <c r="A16" s="6"/>
       <c r="B16" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="3">
         <v>1.2</v>
@@ -1190,13 +1196,13 @@
         <v>1.2</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" ht="33">
       <c r="A17" s="6"/>
-      <c r="B17" s="17" t="s">
-        <v>38</v>
+      <c r="B17" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="C17" s="3">
         <v>2.0499999999999998</v>
@@ -1205,15 +1211,15 @@
         <f t="shared" si="1"/>
         <v>2.0499999999999998</v>
       </c>
-      <c r="F17" s="19"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" s="9" customFormat="1" ht="16.5">
       <c r="A18" s="10"/>
       <c r="B18" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="12"/>
       <c r="E18" s="9">
@@ -1221,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -1231,8 +1237,8 @@
         <f>SUM(E2:E18)</f>
         <v>47.200000000000003</v>
       </c>
-      <c r="F19" s="19" t="s">
-        <v>41</v>
+      <c r="F19" s="13" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
